--- a/google_nq/expe/04. Evals/ready_to_gen_facts_google_nq--30Q_0C_221F_1M_30A_30HE_30AE_2024-04-01_00h50,33.xlsx
+++ b/google_nq/expe/04. Evals/ready_to_gen_facts_google_nq--30Q_0C_221F_1M_30A_30HE_30AE_2024-04-01_00h50,33.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gilles_recital\source\repos\rag-projects\google_nq\expe\04. Evals\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B281D876-A5DA-45BA-9D24-73EE0EBD6F3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2536E053-86B4-49BA-A3C3-4D1A11CCDB08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2039,7 +2039,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>

--- a/google_nq/expe/04. Evals/ready_to_gen_facts_google_nq--30Q_0C_221F_1M_30A_30HE_30AE_2024-04-01_00h50,33.xlsx
+++ b/google_nq/expe/04. Evals/ready_to_gen_facts_google_nq--30Q_0C_221F_1M_30A_30HE_30AE_2024-04-01_00h50,33.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gilles_recital\source\repos\rag-projects\google_nq\expe\04. Evals\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2536E053-86B4-49BA-A3C3-4D1A11CCDB08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BD70ADA-7887-48D4-A86A-03B4F0EA4CB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="410">
   <si>
     <t>Questions</t>
   </si>
@@ -439,9 +439,6 @@
     <t>3. The S phase is the second part of the cell cycle, during which DNA replication occurs, resulting in two identical sets of chromosomes.</t>
   </si>
   <si>
-    <t>4. The G2 phase is the third part of the cell cycle, marked by significant protein synthesis, particularly the production of microtubules needed for cell division.</t>
-  </si>
-  <si>
     <t>5. The M phase is the fourth and final part of the cell cycle, involving nuclear division (karyokinesis) and cytoplasmic division (cytokinesis).</t>
   </si>
   <si>
@@ -940,12 +937,6 @@
     <t>2. This phenomenon is commonly observed in people addicted to heroin.</t>
   </si>
   <si>
-    <t>3. The term "kick the habit" refers to the muscle spasms that occur during withdrawal.</t>
-  </si>
-  <si>
-    <t>4. These muscle spasms are another symptom of opioid discontinuation.</t>
-  </si>
-  <si>
     <t>what game are they playing in casino royale ?</t>
   </si>
   <si>
@@ -1258,7 +1249,43 @@
     <t>NB_ROWS</t>
   </si>
   <si>
-    <t>1. A Dogue de Bordeaux</t>
+    <t>4. The G2 phase is the third part of the cell cycle, marked by significant protein synthesis, particularly the production of microtubules needed for cell division, called mitosis.</t>
+  </si>
+  <si>
+    <t>3. The term "kick the habit" refers to the muscle spasms that occur during opioid discontinuation.</t>
+  </si>
+  <si>
+    <t>1. The Dogue de Bordeaux first came to the USA in the 1890s for dog shows.</t>
+  </si>
+  <si>
+    <t>2. The first modern Dogues de Bordeaux appeared in 1959 and 1968.</t>
+  </si>
+  <si>
+    <t>3. Between 1969 and 1980, Dogues de Bordeaux were rare in the USA.</t>
+  </si>
+  <si>
+    <t>4. The breed was officially introduced to American enthusiasts in an article written in 1982.</t>
+  </si>
+  <si>
+    <t>5. The article was written by American anthropologist, Dr. Carl Semencic.</t>
+  </si>
+  <si>
+    <t>6. Semencic also wrote chapters about the Dogue de Bordeaux in his books.</t>
+  </si>
+  <si>
+    <t>7. When Semencic's first article was published, there were no Bordeaux Dogues in the United States.</t>
+  </si>
+  <si>
+    <t>9. The breed was mostly found in France, the Netherlands, and East Berlin.</t>
+  </si>
+  <si>
+    <t>10. The Dogue de Bordeaux was featured in the 1989 movie Turner &amp; Hooch.</t>
+  </si>
+  <si>
+    <t>11. Many viewers did not know that the dog in the movie was a Dogue de Bordeaux.</t>
+  </si>
+  <si>
+    <t>8. At that time, there were only 600 Dogues de Bordeaux left in the world, and the breed's numbers were on the decline.</t>
   </si>
 </sst>
 </file>
@@ -2036,10 +2063,10 @@
   <dimension ref="A1:W223"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C195" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomRight" activeCell="D216" sqref="D216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
@@ -2958,22 +2985,22 @@
     </row>
     <row r="67" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D67" s="7" t="s">
-        <v>127</v>
+        <v>397</v>
       </c>
     </row>
     <row r="68" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D68" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="69" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D69" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="70" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D70" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="71" spans="1:23" x14ac:dyDescent="0.3">
@@ -2981,10 +3008,10 @@
         <v>10</v>
       </c>
       <c r="B71" t="s">
+        <v>130</v>
+      </c>
+      <c r="D71" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="D71" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="E71" t="s">
         <v>19</v>
@@ -2996,10 +3023,10 @@
         <v>4.6595259999999996</v>
       </c>
       <c r="H71" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="I71" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="I71" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="J71" s="14"/>
       <c r="N71">
@@ -3024,33 +3051,33 @@
         <v>2.9876339999999999</v>
       </c>
       <c r="U71" t="s">
+        <v>134</v>
+      </c>
+      <c r="V71">
+        <v>1</v>
+      </c>
+      <c r="W71" t="s">
         <v>135</v>
-      </c>
-      <c r="V71">
-        <v>1</v>
-      </c>
-      <c r="W71" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="72" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D72" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="73" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D73" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="74" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D74" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="75" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D75" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="76" spans="1:23" x14ac:dyDescent="0.3">
@@ -3058,10 +3085,10 @@
         <v>11</v>
       </c>
       <c r="B76" t="s">
+        <v>140</v>
+      </c>
+      <c r="D76" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="D76" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="E76" t="s">
         <v>19</v>
@@ -3073,10 +3100,10 @@
         <v>6.559939</v>
       </c>
       <c r="H76" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="I76" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="I76" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="J76" s="14"/>
       <c r="N76">
@@ -3101,58 +3128,58 @@
         <v>9.3704269999999994</v>
       </c>
       <c r="U76" t="s">
+        <v>144</v>
+      </c>
+      <c r="V76">
+        <v>1</v>
+      </c>
+      <c r="W76" t="s">
         <v>145</v>
-      </c>
-      <c r="V76">
-        <v>1</v>
-      </c>
-      <c r="W76" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="77" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D77" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="78" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D78" s="7" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="79" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D79" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="80" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D80" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="81" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D81" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="82" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D82" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="83" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D83" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="84" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D84" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="85" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D85" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="86" spans="1:23" x14ac:dyDescent="0.3">
@@ -3160,10 +3187,10 @@
         <v>12</v>
       </c>
       <c r="B86" t="s">
+        <v>155</v>
+      </c>
+      <c r="D86" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="D86" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="E86" t="s">
         <v>19</v>
@@ -3175,10 +3202,10 @@
         <v>1.469174</v>
       </c>
       <c r="H86" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="I86" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="I86" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="J86" s="14"/>
       <c r="N86">
@@ -3203,18 +3230,18 @@
         <v>0.96416800000000003</v>
       </c>
       <c r="U86" t="s">
+        <v>159</v>
+      </c>
+      <c r="V86">
+        <v>1</v>
+      </c>
+      <c r="W86" t="s">
         <v>160</v>
-      </c>
-      <c r="V86">
-        <v>1</v>
-      </c>
-      <c r="W86" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="87" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D87" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="88" spans="1:23" x14ac:dyDescent="0.3">
@@ -3222,10 +3249,10 @@
         <v>13</v>
       </c>
       <c r="B88" t="s">
+        <v>162</v>
+      </c>
+      <c r="D88" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="D88" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="E88" t="s">
         <v>19</v>
@@ -3237,10 +3264,10 @@
         <v>4.895575</v>
       </c>
       <c r="H88" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="I88" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="I88" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="J88" s="14"/>
       <c r="N88">
@@ -3265,38 +3292,38 @@
         <v>3.7480519999999999</v>
       </c>
       <c r="U88" t="s">
+        <v>166</v>
+      </c>
+      <c r="V88">
+        <v>1</v>
+      </c>
+      <c r="W88" t="s">
         <v>167</v>
-      </c>
-      <c r="V88">
-        <v>1</v>
-      </c>
-      <c r="W88" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="89" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D89" s="7" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="90" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D90" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="91" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D91" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="92" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D92" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="93" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D93" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="94" spans="1:23" x14ac:dyDescent="0.3">
@@ -3304,10 +3331,10 @@
         <v>14</v>
       </c>
       <c r="B94" t="s">
+        <v>173</v>
+      </c>
+      <c r="D94" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="D94" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="E94" t="s">
         <v>19</v>
@@ -3319,10 +3346,10 @@
         <v>3.4281410000000001</v>
       </c>
       <c r="H94" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="I94" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="I94" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="J94" s="14"/>
       <c r="N94">
@@ -3347,38 +3374,38 @@
         <v>3.278184</v>
       </c>
       <c r="U94" t="s">
+        <v>177</v>
+      </c>
+      <c r="V94">
+        <v>1</v>
+      </c>
+      <c r="W94" t="s">
         <v>178</v>
-      </c>
-      <c r="V94">
-        <v>1</v>
-      </c>
-      <c r="W94" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="95" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D95" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="96" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D96" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="97" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D97" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="98" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D98" s="7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="99" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D99" s="7" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="100" spans="1:23" x14ac:dyDescent="0.3">
@@ -3386,10 +3413,10 @@
         <v>15</v>
       </c>
       <c r="B100" t="s">
+        <v>184</v>
+      </c>
+      <c r="D100" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="D100" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="E100" t="s">
         <v>19</v>
@@ -3401,10 +3428,10 @@
         <v>8.8623539999999998</v>
       </c>
       <c r="H100" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="I100" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="I100" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="J100" s="14"/>
       <c r="N100">
@@ -3429,58 +3456,58 @@
         <v>6.1515389999999996</v>
       </c>
       <c r="U100" t="s">
+        <v>188</v>
+      </c>
+      <c r="V100">
+        <v>1</v>
+      </c>
+      <c r="W100" t="s">
         <v>189</v>
-      </c>
-      <c r="V100">
-        <v>1</v>
-      </c>
-      <c r="W100" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="101" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D101" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="102" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D102" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="103" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D103" s="7" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="104" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D104" s="7" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="105" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D105" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="106" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D106" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="107" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D107" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="108" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D108" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="109" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D109" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="110" spans="1:23" x14ac:dyDescent="0.3">
@@ -3488,10 +3515,10 @@
         <v>16</v>
       </c>
       <c r="B110" t="s">
+        <v>199</v>
+      </c>
+      <c r="D110" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="D110" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="E110" t="s">
         <v>19</v>
@@ -3503,10 +3530,10 @@
         <v>6.160361</v>
       </c>
       <c r="H110" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="I110" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="I110" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="J110" s="14"/>
       <c r="N110">
@@ -3531,68 +3558,68 @@
         <v>8.6669979999999995</v>
       </c>
       <c r="U110" t="s">
+        <v>203</v>
+      </c>
+      <c r="V110">
+        <v>1</v>
+      </c>
+      <c r="W110" t="s">
         <v>204</v>
-      </c>
-      <c r="V110">
-        <v>1</v>
-      </c>
-      <c r="W110" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="111" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D111" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="112" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D112" s="7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="113" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D113" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="114" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D114" s="7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="115" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D115" s="7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="116" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D116" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="117" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D117" s="7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="118" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D118" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="119" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D119" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="120" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D120" s="7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="121" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D121" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="122" spans="1:23" x14ac:dyDescent="0.3">
@@ -3600,10 +3627,10 @@
         <v>17</v>
       </c>
       <c r="B122" t="s">
+        <v>216</v>
+      </c>
+      <c r="D122" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="D122" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="E122" t="s">
         <v>19</v>
@@ -3615,10 +3642,10 @@
         <v>5.2158959999999999</v>
       </c>
       <c r="H122" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="I122" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="I122" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="J122" s="14"/>
       <c r="N122">
@@ -3643,38 +3670,38 @@
         <v>3.5407519999999999</v>
       </c>
       <c r="U122" t="s">
+        <v>220</v>
+      </c>
+      <c r="V122">
+        <v>1</v>
+      </c>
+      <c r="W122" t="s">
         <v>221</v>
-      </c>
-      <c r="V122">
-        <v>1</v>
-      </c>
-      <c r="W122" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="123" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D123" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="124" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D124" s="7" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="125" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D125" s="7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="126" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D126" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="127" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D127" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="128" spans="1:23" x14ac:dyDescent="0.3">
@@ -3682,10 +3709,10 @@
         <v>18</v>
       </c>
       <c r="B128" t="s">
+        <v>227</v>
+      </c>
+      <c r="D128" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="D128" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="E128" t="s">
         <v>19</v>
@@ -3697,10 +3724,10 @@
         <v>6.4214630000000001</v>
       </c>
       <c r="H128" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="I128" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="I128" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="J128" s="14"/>
       <c r="N128">
@@ -3725,58 +3752,58 @@
         <v>6.6879410000000004</v>
       </c>
       <c r="U128" t="s">
+        <v>231</v>
+      </c>
+      <c r="V128">
+        <v>1</v>
+      </c>
+      <c r="W128" t="s">
         <v>232</v>
-      </c>
-      <c r="V128">
-        <v>1</v>
-      </c>
-      <c r="W128" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="129" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D129" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="130" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D130" s="7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="131" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D131" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="132" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D132" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="133" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D133" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="134" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D134" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="135" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D135" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="136" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D136" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="137" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D137" s="7" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="138" spans="1:23" x14ac:dyDescent="0.3">
@@ -3784,10 +3811,10 @@
         <v>19</v>
       </c>
       <c r="B138" t="s">
+        <v>242</v>
+      </c>
+      <c r="D138" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="D138" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="E138" t="s">
         <v>19</v>
@@ -3799,10 +3826,10 @@
         <v>2.6985459999999999</v>
       </c>
       <c r="H138" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="I138" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="I138" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="J138" s="14"/>
       <c r="N138">
@@ -3827,33 +3854,33 @@
         <v>2.8070469999999998</v>
       </c>
       <c r="U138" t="s">
+        <v>246</v>
+      </c>
+      <c r="V138">
+        <v>1</v>
+      </c>
+      <c r="W138" t="s">
         <v>247</v>
-      </c>
-      <c r="V138">
-        <v>1</v>
-      </c>
-      <c r="W138" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="139" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D139" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="140" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D140" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="141" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D141" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="142" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D142" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="143" spans="1:23" x14ac:dyDescent="0.3">
@@ -3861,10 +3888,10 @@
         <v>20</v>
       </c>
       <c r="B143" t="s">
+        <v>252</v>
+      </c>
+      <c r="D143" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="D143" s="7" t="s">
-        <v>254</v>
       </c>
       <c r="E143" t="s">
         <v>19</v>
@@ -3876,10 +3903,10 @@
         <v>4.8799010000000003</v>
       </c>
       <c r="H143" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="I143" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="I143" s="7" t="s">
-        <v>256</v>
       </c>
       <c r="J143" s="14"/>
       <c r="N143">
@@ -3904,38 +3931,38 @@
         <v>5.7962119999999997</v>
       </c>
       <c r="U143" t="s">
+        <v>256</v>
+      </c>
+      <c r="V143">
+        <v>1</v>
+      </c>
+      <c r="W143" t="s">
         <v>257</v>
-      </c>
-      <c r="V143">
-        <v>1</v>
-      </c>
-      <c r="W143" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="144" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D144" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="145" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D145" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="146" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D146" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="147" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D147" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="148" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D148" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="149" spans="1:23" x14ac:dyDescent="0.3">
@@ -3943,10 +3970,10 @@
         <v>21</v>
       </c>
       <c r="B149" t="s">
+        <v>263</v>
+      </c>
+      <c r="D149" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="D149" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="E149" t="s">
         <v>19</v>
@@ -3958,10 +3985,10 @@
         <v>3.851407</v>
       </c>
       <c r="H149" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="I149" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="I149" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="J149" s="14"/>
       <c r="N149">
@@ -3986,38 +4013,38 @@
         <v>5.4067179999999997</v>
       </c>
       <c r="U149" t="s">
+        <v>267</v>
+      </c>
+      <c r="V149">
+        <v>1</v>
+      </c>
+      <c r="W149" t="s">
         <v>268</v>
-      </c>
-      <c r="V149">
-        <v>1</v>
-      </c>
-      <c r="W149" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="150" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D150" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="151" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D151" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="152" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D152" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="153" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D153" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="154" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D154" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="155" spans="1:23" x14ac:dyDescent="0.3">
@@ -4025,10 +4052,10 @@
         <v>22</v>
       </c>
       <c r="B155" t="s">
+        <v>274</v>
+      </c>
+      <c r="D155" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="D155" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="E155" t="s">
         <v>19</v>
@@ -4040,10 +4067,10 @@
         <v>5.6636170000000003</v>
       </c>
       <c r="H155" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="I155" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="I155" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="J155" s="14"/>
       <c r="N155">
@@ -4068,43 +4095,43 @@
         <v>6.8144660000000004</v>
       </c>
       <c r="U155" t="s">
+        <v>278</v>
+      </c>
+      <c r="V155">
+        <v>1</v>
+      </c>
+      <c r="W155" t="s">
         <v>279</v>
-      </c>
-      <c r="V155">
-        <v>1</v>
-      </c>
-      <c r="W155" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="156" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D156" s="7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="157" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D157" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="158" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D158" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="159" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D159" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="160" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D160" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="161" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D161" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="162" spans="1:23" x14ac:dyDescent="0.3">
@@ -4112,10 +4139,10 @@
         <v>23</v>
       </c>
       <c r="B162" t="s">
+        <v>286</v>
+      </c>
+      <c r="D162" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="D162" s="7" t="s">
-        <v>288</v>
       </c>
       <c r="E162" t="s">
         <v>19</v>
@@ -4127,10 +4154,10 @@
         <v>2.3041140000000002</v>
       </c>
       <c r="H162" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="I162" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="I162" s="7" t="s">
-        <v>290</v>
       </c>
       <c r="J162" s="14"/>
       <c r="N162">
@@ -4155,28 +4182,23 @@
         <v>2.55335</v>
       </c>
       <c r="U162" t="s">
+        <v>290</v>
+      </c>
+      <c r="V162">
+        <v>1</v>
+      </c>
+      <c r="W162" t="s">
         <v>291</v>
-      </c>
-      <c r="V162">
-        <v>1</v>
-      </c>
-      <c r="W162" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="163" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D163" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="164" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D164" s="7" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="165" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="D165" s="7" t="s">
-        <v>295</v>
+        <v>398</v>
       </c>
     </row>
     <row r="166" spans="1:23" x14ac:dyDescent="0.3">
@@ -4184,10 +4206,10 @@
         <v>24</v>
       </c>
       <c r="B166" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D166" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E166" t="s">
         <v>19</v>
@@ -4199,10 +4221,10 @@
         <v>5.8347879999999996</v>
       </c>
       <c r="H166" s="11" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="I166" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="J166" s="14"/>
       <c r="N166">
@@ -4227,58 +4249,58 @@
         <v>6.0381620000000007</v>
       </c>
       <c r="U166" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="V166">
         <v>1</v>
       </c>
       <c r="W166" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="167" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D167" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="168" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D168" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="169" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D169" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="170" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D170" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="171" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D171" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="172" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D172" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="173" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D173" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="174" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D174" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="175" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D175" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="176" spans="1:23" x14ac:dyDescent="0.3">
@@ -4286,10 +4308,10 @@
         <v>25</v>
       </c>
       <c r="B176" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D176" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="E176" t="s">
         <v>19</v>
@@ -4301,10 +4323,10 @@
         <v>9.0092870000000005</v>
       </c>
       <c r="H176" s="11" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="I176" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="J176" s="14"/>
       <c r="N176">
@@ -4329,58 +4351,58 @@
         <v>10.479684000000001</v>
       </c>
       <c r="U176" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="V176">
         <v>1</v>
       </c>
       <c r="W176" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="177" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D177" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="178" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D178" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="179" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D179" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="180" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D180" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="181" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D181" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="182" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D182" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="183" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D183" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="184" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D184" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="185" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D185" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="186" spans="1:23" x14ac:dyDescent="0.3">
@@ -4388,10 +4410,10 @@
         <v>26</v>
       </c>
       <c r="B186" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D186" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="E186" t="s">
         <v>19</v>
@@ -4403,10 +4425,10 @@
         <v>3.0498249999999998</v>
       </c>
       <c r="H186" s="11" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="I186" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="J186" s="14"/>
       <c r="N186">
@@ -4431,33 +4453,33 @@
         <v>3.9253279999999999</v>
       </c>
       <c r="U186" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="V186">
         <v>1</v>
       </c>
       <c r="W186" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="187" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D187" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="188" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D188" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="189" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D189" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="190" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D190" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="191" spans="1:23" x14ac:dyDescent="0.3">
@@ -4465,10 +4487,10 @@
         <v>27</v>
       </c>
       <c r="B191" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D191" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="E191" t="s">
         <v>19</v>
@@ -4480,10 +4502,10 @@
         <v>3.058818</v>
       </c>
       <c r="H191" s="11" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="I191" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="J191" s="14"/>
       <c r="N191">
@@ -4508,28 +4530,28 @@
         <v>1.6323700000000001</v>
       </c>
       <c r="U191" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="V191">
         <v>1</v>
       </c>
       <c r="W191" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="192" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D192" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="193" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D193" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="194" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D194" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="196" spans="1:23" x14ac:dyDescent="0.3">
@@ -4537,10 +4559,10 @@
         <v>28</v>
       </c>
       <c r="B196" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D196" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="E196" t="s">
         <v>19</v>
@@ -4552,10 +4574,10 @@
         <v>9.4724760000000003</v>
       </c>
       <c r="H196" s="11" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="I196" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="J196" s="14"/>
       <c r="N196">
@@ -4580,58 +4602,58 @@
         <v>10.150387</v>
       </c>
       <c r="U196" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="V196">
         <v>1</v>
       </c>
       <c r="W196" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="197" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D197" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="198" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D198" s="7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="199" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D199" s="7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="200" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D200" s="7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="201" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D201" s="7" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="202" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D202" s="7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="203" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D203" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="204" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D204" s="7" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="205" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D205" s="7" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="206" spans="1:23" x14ac:dyDescent="0.3">
@@ -4639,10 +4661,10 @@
         <v>29</v>
       </c>
       <c r="B206" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D206" s="7" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E206" t="s">
         <v>19</v>
@@ -4654,10 +4676,10 @@
         <v>12.24166</v>
       </c>
       <c r="H206" s="11" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="I206" s="7" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="J206" s="14"/>
       <c r="N206">
@@ -4682,13 +4704,63 @@
         <v>9.2613339999999997</v>
       </c>
       <c r="U206" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="V206">
         <v>1</v>
       </c>
       <c r="W206" t="s">
-        <v>364</v>
+        <v>361</v>
+      </c>
+    </row>
+    <row r="207" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="D207" s="7" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="208" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="D208" s="7" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="209" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="D209" s="7" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="210" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="D210" s="7" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="211" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="D211" s="7" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="212" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="D212" s="7" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="213" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="D213" s="7" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="214" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="D214" s="7" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="215" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="D215" s="7" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="216" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="D216" s="7" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="217" spans="1:23" x14ac:dyDescent="0.3">
@@ -4696,10 +4768,10 @@
         <v>30</v>
       </c>
       <c r="B217" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D217" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="E217" t="s">
         <v>19</v>
@@ -4711,10 +4783,10 @@
         <v>6.3948510000000001</v>
       </c>
       <c r="H217" s="11" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="I217" s="7" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="J217" s="14"/>
       <c r="N217">
@@ -4739,43 +4811,43 @@
         <v>5.1005130000000003</v>
       </c>
       <c r="U217" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="V217">
         <v>1</v>
       </c>
       <c r="W217" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="218" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D218" s="7" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="219" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D219" s="7" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="220" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D220" s="7" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="221" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D221" s="7" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="222" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D222" s="7" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="223" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D223" s="7" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
   </sheetData>
@@ -4826,11 +4898,11 @@
         <v>30</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C1" s="8"/>
       <c r="D1" s="33" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="E1" s="21"/>
       <c r="F1" s="21"/>
@@ -4841,7 +4913,7 @@
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="22">
         <f ca="1">NB_FACTS</f>
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="B2" s="28" t="str">
         <f t="array" aca="1" ref="B2" ca="1">OFFSET(EXPE, 0, FACTS_LLM, 1, 1)</f>
@@ -4879,14 +4951,14 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B4" s="3">
         <f t="array" aca="1" ref="B4" ca="1">AVERAGEIF(OFFSET(EXPE, 0, FACTS_LLM), B$2, OFFSET(EXPE, 0, FACTS_DURATION))</f>
         <v>5.7688936999999987</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D4" s="3">
         <f t="array" aca="1" ref="D4" ca="1">AVERAGEIF(OFFSET(EXPE, 0, EVALS_LLM), D$2, OFFSET(EXPE, 0, EVALS_DURATION))</f>
@@ -4917,14 +4989,14 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B6" s="35">
         <f t="array" aca="1" ref="B6" ca="1">AVERAGEIF(OFFSET(EXPE, 0, FACTS_LLM), B$2, OFFSET(EXPE, 0, FACTS_COST))*100</f>
         <v>1.6880999999999997</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D6" s="35">
         <f t="array" aca="1" ref="D6" ca="1">AVERAGEIF(OFFSET(EXPE, 0, EVALS_LLM), D$2, OFFSET(EXPE, 0, EVALS_COST))*100</f>
@@ -4950,7 +5022,7 @@
       <c r="A8" s="23"/>
       <c r="B8" s="31"/>
       <c r="C8" s="25" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D8" s="5">
         <f ca="1">D7/NB_QUESTIONS</f>
@@ -4963,7 +5035,7 @@
       <c r="A9" s="23"/>
       <c r="B9" s="30"/>
       <c r="C9" s="23" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D9" s="37">
         <f t="array" aca="1" ref="D9" ca="1">COUNTIFS(OFFSET(EXPE, 0, EVALS_LLM), D$2, OFFSET(EXPE, 0, EVAL_AUTO), 1)</f>
@@ -4976,7 +5048,7 @@
       <c r="A10" s="23"/>
       <c r="B10" s="29"/>
       <c r="C10" s="25" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D10" s="2">
         <f ca="1">D9/NB_QUESTIONS</f>
@@ -4989,7 +5061,7 @@
       <c r="A11" s="23"/>
       <c r="B11" s="30"/>
       <c r="C11" s="23" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D11" s="38">
         <f ca="1">NB_QUESTIONS-D9</f>
@@ -5002,7 +5074,7 @@
       <c r="A12" s="23"/>
       <c r="B12" s="29"/>
       <c r="C12" s="25" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D12" s="2">
         <f ca="1">1-D10</f>
@@ -5092,13 +5164,13 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B1">
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="I1" s="26" t="str">
         <f>"Computed cells have a yellow background"</f>
@@ -5110,18 +5182,18 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -5129,7 +5201,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -5137,7 +5209,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -5148,12 +5220,12 @@
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -5161,7 +5233,7 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B8">
         <v>6</v>
@@ -5169,7 +5241,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -5182,7 +5254,7 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B11">
         <v>18</v>
@@ -5190,7 +5262,7 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B12">
         <v>19</v>
@@ -5198,7 +5270,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B13">
         <v>13</v>
@@ -5206,7 +5278,7 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B14">
         <v>14</v>
@@ -5214,7 +5286,7 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B16" s="26">
         <f t="array" aca="1" ref="B16" ca="1">COUNTA(OFFSET(Expe!$B$1, HEADER_SIZE, FACTS_LLM, BLOCK_SIZE, 1))</f>
@@ -5223,7 +5295,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B17" s="26">
         <f ca="1">COUNTA(OFFSET(EXPE,0,QUESTION_COL))</f>
@@ -5232,16 +5304,16 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B18" s="26">
         <f ca="1">COUNTA(OFFSET(EXPE, 0, FACT_COL))</f>
-        <v>210</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B19" s="26">
         <f t="array" aca="1" ref="B19" ca="1">MATCH(TRUE, NOT(ISBLANK(OFFSET(EXPE,1, 0))), 0)</f>
@@ -5250,7 +5322,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B20" s="26">
         <f t="array" aca="1" ref="B20" ca="1">MAX(MAX((OFFSET(Expe!$B$1,HEADER_SIZE,CHUNK_COL,100000,1)&lt;&gt;"") * (ROW(OFFSET(Expe!$B$1,HEADER_SIZE,CHUNK_COL,100000,1)))), MAX((OFFSET(Expe!$B$1,HEADER_SIZE,FACT_COL,100000,1)&lt;&gt;"") * (ROW(OFFSET(Expe!$B$1,HEADER_SIZE,FACT_COL,100000,1)))), MAX((OFFSET(Expe!$B$1,HEADER_SIZE,FACTS_LLM,100000,1)&lt;&gt;"") * (ROW(OFFSET(Expe!$B$1,HEADER_SIZE,FACTS_LLM,100000,1)))))</f>
